--- a/CRE EW Gantt Chart.xlsx
+++ b/CRE EW Gantt Chart.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shilin\Documents\mufg\CRE EW\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252DBB6F-8348-49BE-9F60-0448D433831A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6255" yWindow="3750" windowWidth="13275" windowHeight="4980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,14 @@
   <definedNames>
     <definedName name="_AMO_UniqueIdentifier" hidden="1">"'22b171db-4089-4a10-911c-8ba58b5b422b'"</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterate="1" calcOnSave="0"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -65,9 +78,6 @@
 Person Hours for Task</t>
   </si>
   <si>
-    <t>Data Collection</t>
-  </si>
-  <si>
     <t>Task to Start</t>
   </si>
   <si>
@@ -103,12 +113,15 @@
   </si>
   <si>
     <t>Line of Business, CPM</t>
+  </si>
+  <si>
+    <t>Data Collection and Organization</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -801,13 +814,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -817,33 +833,39 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9523</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>99647</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>148002</xdr:rowOff>
+      <xdr:rowOff>41032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>197827</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>109904</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>64478</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Line Callout 1 2"/>
+        <xdr:cNvPr id="3" name="Line Callout 1 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3738927" y="4917829"/>
-          <a:ext cx="1712304" cy="914402"/>
+          <a:off x="4302370" y="4554417"/>
+          <a:ext cx="1512277" cy="650630"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -2505"/>
-            <a:gd name="adj2" fmla="val 11388"/>
-            <a:gd name="adj3" fmla="val -149470"/>
-            <a:gd name="adj4" fmla="val -21984"/>
+            <a:gd name="adj1" fmla="val -8312"/>
+            <a:gd name="adj2" fmla="val 37473"/>
+            <a:gd name="adj3" fmla="val -181826"/>
+            <a:gd name="adj4" fmla="val -30082"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -868,7 +890,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
-            <a:t>Deliverables: Preliminary data analysis and initial approaches proposed</a:t>
+            <a:t>Deliverables:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>initial approaches proposed</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -877,26 +907,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>255708</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>279154</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>80597</xdr:rowOff>
+      <xdr:rowOff>51289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>58615</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>82061</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>80597</xdr:rowOff>
+      <xdr:rowOff>5861</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Line Callout 1 3"/>
+        <xdr:cNvPr id="4" name="Line Callout 1 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5128112" y="2982059"/>
-          <a:ext cx="1326907" cy="571500"/>
+          <a:off x="5642462" y="2970335"/>
+          <a:ext cx="1350353" cy="482111"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -928,7 +964,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
-            <a:t>Deliverables: initial selection of models</a:t>
+            <a:t>Deliverables: initial draft of models</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -950,7 +986,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Line Callout 1 4"/>
+        <xdr:cNvPr id="5" name="Line Callout 1 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1015,7 +1057,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Line Callout 1 5"/>
+        <xdr:cNvPr id="6" name="Line Callout 1 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1063,25 +1111,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>115031</xdr:colOff>
+      <xdr:colOff>261570</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>49825</xdr:rowOff>
+      <xdr:rowOff>55687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>196361</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>269632</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>49825</xdr:rowOff>
+      <xdr:rowOff>41031</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Line Callout 1 6"/>
+        <xdr:cNvPr id="7" name="Line Callout 1 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6511435" y="3141787"/>
-          <a:ext cx="1224330" cy="571500"/>
+          <a:off x="6785462" y="3150579"/>
+          <a:ext cx="1555508" cy="512883"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1115,6 +1169,77 @@
             <a:rPr lang="en-US" sz="1000"/>
             <a:t>Deliverables: feedbacks and changes on models</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>339968</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>58615</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>17585</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Line Callout 1 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7728C809-72F3-443A-BD7C-0AEE22423340}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2995245" y="4062046"/>
+          <a:ext cx="1266093" cy="650631"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2982"/>
+            <a:gd name="adj2" fmla="val 51031"/>
+            <a:gd name="adj3" fmla="val -135340"/>
+            <a:gd name="adj4" fmla="val 36951"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Deliverables: Preliminary</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> data analysis</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1166,7 +1291,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1199,9 +1324,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1234,6 +1376,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1409,25 +1568,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="7" customWidth="1"/>
-    <col min="3" max="18" width="5.7109375" style="7" customWidth="1"/>
-    <col min="19" max="19" width="6.7109375" style="7" customWidth="1"/>
-    <col min="20" max="20" width="5.7109375" style="7" customWidth="1"/>
-    <col min="21" max="21" width="7.42578125" style="7" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="4.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="7" customWidth="1"/>
+    <col min="3" max="18" width="5.6640625" style="7" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" style="7" customWidth="1"/>
+    <col min="21" max="21" width="7.44140625" style="7" customWidth="1"/>
+    <col min="22" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.55">
+    <row r="1" spans="1:29" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.9">
       <c r="A1" s="13"/>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
@@ -1460,13 +1619,13 @@
       <c r="AB1" s="13"/>
       <c r="AC1" s="13"/>
     </row>
-    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="73" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="66"/>
       <c r="C2" s="65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="65"/>
       <c r="E2" s="65"/>
@@ -1501,7 +1660,7 @@
       </c>
       <c r="B3" s="75"/>
       <c r="C3" s="67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="67"/>
       <c r="E3" s="67"/>
@@ -1571,7 +1730,7 @@
       </c>
       <c r="B5" s="77"/>
       <c r="C5" s="69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="69"/>
       <c r="E5" s="69"/>
@@ -1606,7 +1765,7 @@
       </c>
       <c r="B6" s="77"/>
       <c r="C6" s="69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="69"/>
       <c r="E6" s="69"/>
@@ -1635,13 +1794,13 @@
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="64"/>
       <c r="C7" s="71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="71"/>
       <c r="E7" s="71"/>
@@ -1701,7 +1860,7 @@
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
@@ -1799,7 +1958,7 @@
         <v>43476</v>
       </c>
       <c r="R10" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S10" s="31" t="s">
         <v>14</v>
@@ -1857,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C12" s="34">
         <v>40</v>
@@ -1866,7 +2025,7 @@
         <v>40</v>
       </c>
       <c r="E12" s="40">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="37"/>
@@ -1883,7 +2042,7 @@
       <c r="R12" s="35"/>
       <c r="S12" s="48">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
@@ -1899,16 +2058,16 @@
         <v>3</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="38"/>
-      <c r="D13" s="32">
-        <v>40</v>
-      </c>
+      <c r="D13" s="38"/>
       <c r="E13" s="32">
         <v>40</v>
       </c>
-      <c r="F13" s="37"/>
+      <c r="F13" s="32">
+        <v>40</v>
+      </c>
       <c r="G13" s="37"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
@@ -1939,28 +2098,26 @@
         <v>4</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="38"/>
-      <c r="D14" s="32">
-        <v>80</v>
-      </c>
-      <c r="E14" s="32">
-        <v>80</v>
-      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="32">
         <v>80</v>
       </c>
       <c r="G14" s="32">
         <v>80</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="32">
         <v>80</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="32">
         <v>80</v>
       </c>
-      <c r="J14" s="35"/>
+      <c r="J14" s="40">
+        <v>80</v>
+      </c>
       <c r="K14" s="35"/>
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
@@ -1971,7 +2128,7 @@
       <c r="R14" s="35"/>
       <c r="S14" s="48">
         <f t="shared" si="1"/>
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
@@ -1987,16 +2144,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="35"/>
       <c r="E15" s="35"/>
       <c r="F15" s="35"/>
       <c r="G15" s="23"/>
-      <c r="H15" s="32">
-        <v>80</v>
-      </c>
+      <c r="H15" s="23"/>
       <c r="I15" s="32">
         <v>80</v>
       </c>
@@ -2017,7 +2172,7 @@
       <c r="R15" s="35"/>
       <c r="S15" s="48">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
@@ -2043,9 +2198,7 @@
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
       <c r="J16" s="23"/>
-      <c r="K16" s="32">
-        <v>40</v>
-      </c>
+      <c r="K16" s="23"/>
       <c r="L16" s="32">
         <v>40</v>
       </c>
@@ -2061,7 +2214,7 @@
       <c r="R16" s="35"/>
       <c r="S16" s="48">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
@@ -2077,7 +2230,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="35"/>
@@ -2113,13 +2266,13 @@
       <c r="Y17" s="16"/>
       <c r="Z17" s="18"/>
     </row>
-    <row r="18" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="58"/>
       <c r="D18" s="1"/>
@@ -2153,7 +2306,7 @@
       <c r="Y18" s="16"/>
       <c r="Z18" s="18"/>
     </row>
-    <row r="19" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
       <c r="B19" s="55" t="s">
         <v>9</v>
@@ -2164,15 +2317,15 @@
       </c>
       <c r="D19" s="25">
         <f t="shared" ref="D19:R19" si="3">SUM(D11:D18)</f>
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="E19" s="25">
         <f t="shared" si="3"/>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="F19" s="25">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G19" s="25">
         <f t="shared" si="3"/>
@@ -2180,7 +2333,7 @@
       </c>
       <c r="H19" s="25">
         <f t="shared" si="3"/>
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="I19" s="25">
         <f t="shared" si="3"/>
@@ -2188,11 +2341,11 @@
       </c>
       <c r="J19" s="25">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K19" s="25">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="L19" s="25">
         <f t="shared" si="3"/>
@@ -2224,7 +2377,7 @@
       </c>
       <c r="S19" s="5">
         <f t="shared" si="1"/>
-        <v>1800</v>
+        <v>1640</v>
       </c>
       <c r="T19" s="16"/>
       <c r="U19" s="16"/>
@@ -2234,7 +2387,7 @@
       <c r="Y19" s="16"/>
       <c r="Z19" s="16"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -2265,7 +2418,7 @@
       <c r="AB20" s="20"/>
       <c r="AC20" s="20"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="39"/>
       <c r="B21" s="21" t="s">
         <v>10</v>
@@ -2298,10 +2451,10 @@
       <c r="AB21" s="20"/>
       <c r="AC21" s="20"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="33"/>
       <c r="B22" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
